--- a/converted_excel_data/resultat.xlsx
+++ b/converted_excel_data/resultat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,284 +436,287 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>code_commune_insee</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>nom_de_la_commune</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>code_postal</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>libelle_d_acheminement</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ligne_5</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>_geopoint</t>
+          <t>Département;"Commune Code Insee";"Commune";"Nb de droits 2009";"Nb de droits 2010";"Nb de droits 2011";"Nb de droits 2012";"Nb de droits 2013";</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>49002</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ALLONNES</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>49650</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ALLONNES</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>47.3069328,0.00810265</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>93;"93001";"AUBERVILLIERS";"29";"23";"33";"36";"24";</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>49003</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>TUFFALUN</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>49700</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>TUFFALUN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>AMBILLOU CHATEAU</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>47.27049705,-0.32219575</t>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>93;"93005";"AULNAY-SOUS-BOIS";"17";"15";"20";"18";"14";</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>49003</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TUFFALUN</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>49700</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>TUFFALUN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>LOUERRE</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>47.27049705,-0.32219575</t>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>93;"93006";"BAGNOLET";"1";"1";;"1";"1";</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>49003</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>TUFFALUN</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>49700</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>TUFFALUN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NOYANT LA PLAINE</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>47.27049705,-0.32219575</t>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>93;"93007";"LE BLANC-MESNIL";"1";"1";"2";;"2";</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>49007</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ANGERS</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>49000</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ANGERS</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>47.48189605,-0.5629347499999999</t>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>93;"93008";"BOBIGNY";"15";"13";"13";"11";"17";</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>49007</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ANGERS</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>49100</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ANGERS</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>47.48189605,-0.5629347499999999</t>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>93;"93010";"BONDY";"7";"6";"6";"6";"1";</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>49008</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ANGRIE</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>49440</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ANGRIE</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>47.5819468,-0.96774985</t>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>93;"93013";"LE BOURGET";"2";"2";"2";"2";"2";</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>49009</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ANTOIGNE</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>49260</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ANTOIGNE</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>47.07927545,-0.1382129</t>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>93;"93014";"CLICHY-SOUS-BOIS";;;;;"1";</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>49010</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ARMAILLE</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>49420</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ARMAILLE</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>47.713490050000004,-1.14250375</t>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>93;"93015";"COUBRON";;;;;;</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>49011</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ARTANNES SUR THOUET</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>49260</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ARTANNES SUR THOUET</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>47.204157,-0.09776009999999999</t>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>93;"93027";"LA COURNEUVE";"10";"5";"3";"1";"1";</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>93;"93029";"DRANCY";;;;;;</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>93;"93030";"DUGNY";;"1";"1";"1";"1";</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>93;"93031";"EPINAY-SUR-SEINE";"14";"9";"9";"8";"5";</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>93;"93032";"GAGNY";"3";"3";"3";"5";"7";</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>93;"93033";"GOURNAY-SUR-MARNE";;;;;;</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>93;"93039";"L'ILE-SAINT-DENIS";;;;;;</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>93;"93045";"LES LILAS";;"1";"1";"1";;</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>93;"93046";"LIVRY-GARGAN";"2";"2";"2";"1";"1";</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>93;"93047";"MONTFERMEIL";"3";"3";"3";"2";"3";</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>93;"93048";"MONTREUIL";"8";"2";"1";"3";"2";</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>93;"93049";"NEUILLY-PLAISANCE";"1";"1";"1";"1";;</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>93;"93050";"NEUILLY-SUR-MARNE";"1";;;;;</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>93;"93051";"NOISY-LE-GRAND";"7";"5";"4";"4";"5";</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>93;"93053";"NOISY-LE-SEC";"8";"5";"5";"7";"10";</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>93;"93055";"PANTIN";"6";"5";"8";"9";"8";</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>93;"93057";"LES PAVILLONS-SOUS-BOIS";"4";"3";"3";"3";"2";</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>93;"93059";"PIERREFITTE-SUR-SEINE";"4";"2";"2";"2";"1";</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>93;"93061";"LE PRE-SAINT-GERVAIS";"6";"5";"5";"4";;</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>93;"93062";"LE RAINCY";"1";"1";;;;</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>93;"93063";"ROMAINVILLE";"3";"1";"1";;;</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>93;"93064";"ROSNY-SOUS-BOIS";"6";"4";"3";"3";"2";</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>93;"93066";"SAINT-DENIS";"27";"25";"20";"16";"14";</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>93;"93070";"SAINT-OUEN";"2";"1";"4";"3";"3";</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>93;"93071";"SEVRAN";"11";"9";"12";"12";"11";</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>93;"93072";"STAINS";"10";"7";"8";"4";"4";</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>93;"93073";"TREMBLAY-EN-FRANCE";"1";"2";"1";"1";"4";</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>93;"93074";"VAUJOURS";;;;;;</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>93;"93077";"VILLEMOMBLE";"5";"3";"2";"1";;</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>93;"93078";"VILLEPINTE";;;;;;</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>93;"93079";"VILLETANEUSE";;;"1";"2";"1";</t>
         </is>
       </c>
     </row>
